--- a/Assets/00.Data/Excel/BuffsTabel.xlsx
+++ b/Assets/00.Data/Excel/BuffsTabel.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-03\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CFDDDA-165A-4291-84A1-2A6E73C53597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2772A118-77A0-43E0-A509-C2C64713710C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6390" yWindow="5430" windowWidth="14715" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BuffTable" sheetId="16" r:id="rId1"/>
+    <sheet name="BossSkillTable" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BuffTable!$B$5:$T$105</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BuffTable!$A$1:$AE$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BossSkillTable!$B$5:$T$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BossSkillTable!$A$1:$AE$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -818,7 +818,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L6" s="17">
         <v>0</v>
@@ -29282,7 +29282,7 @@
     <brk id="8" max="27" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="1" max="47" man="1"/>
+    <brk id="2" max="47" man="1"/>
     <brk id="19" max="47" man="1"/>
   </colBreaks>
 </worksheet>

--- a/Assets/00.Data/Excel/BuffsTabel.xlsx
+++ b/Assets/00.Data/Excel/BuffsTabel.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2772A118-77A0-43E0-A509-C2C64713710C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6390" yWindow="5430" windowWidth="14715" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6390" yWindow="5430" windowWidth="14715" windowHeight="12765"/>
   </bookViews>
   <sheets>
     <sheet name="BossSkillTable" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BossSkillTable!$B$5:$T$105</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BossSkillTable!$A$1:$AE$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BossSkillTable!$B$5:$T$106</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BossSkillTable!$A$1:$AE$49</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>번호</t>
   </si>
@@ -178,18 +177,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>디법</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>디법이</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>디법감</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>def</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -229,11 +216,43 @@
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">스턴 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>넉백</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 힐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>광역힐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공증</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이속증</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -352,7 +371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -394,17 +413,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -508,64 +516,61 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -574,22 +579,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -811,14 +816,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -874,33 +879,33 @@
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="25" t="s">
         <v>8</v>
       </c>
       <c r="U2" s="1"/>
@@ -912,53 +917,53 @@
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="13" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>47</v>
+      <c r="H3" s="13" t="s">
+        <v>44</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>49</v>
+      <c r="N3" s="12" t="s">
+        <v>46</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="27"/>
+      <c r="T3" s="26"/>
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -968,61 +973,61 @@
     </row>
     <row r="4" spans="1:26" ht="16.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>48</v>
+      <c r="H4" s="8" t="s">
+        <v>45</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="9" t="s">
-        <v>50</v>
+      <c r="N4" s="8" t="s">
+        <v>47</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="21" t="s">
         <v>10</v>
       </c>
       <c r="U4" s="1"/>
@@ -1032,63 +1037,63 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" s="12" customFormat="1" ht="16.5" customHeight="1">
+    <row r="5" spans="1:26" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="20" t="s">
-        <v>51</v>
+      <c r="N5" s="19" t="s">
+        <v>48</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="S5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="23" t="s">
+      <c r="T5" s="22" t="s">
         <v>4</v>
       </c>
       <c r="U5" s="1"/>
@@ -1100,61 +1105,61 @@
     </row>
     <row r="6" spans="1:26" ht="16.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>42</v>
+      <c r="E6" s="16">
+        <v>322001</v>
       </c>
-      <c r="E6" s="17">
-        <v>12</v>
+      <c r="F6" s="16" t="s">
+        <v>43</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>45</v>
+      <c r="G6" s="16">
+        <v>6</v>
       </c>
-      <c r="G6" s="17">
+      <c r="H6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="16">
         <v>1</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="17">
+      <c r="J6" s="16">
         <v>1</v>
       </c>
-      <c r="J6" s="17">
+      <c r="K6" s="16">
         <v>1</v>
       </c>
-      <c r="K6" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="17">
+      <c r="L6" s="16">
         <v>0</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="16">
         <v>1</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="16">
         <v>0</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="17">
         <v>1</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="18">
         <v>0</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="18">
         <v>1</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="18">
         <v>0</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="24">
         <v>0</v>
       </c>
-      <c r="T6" s="8"/>
+      <c r="T6" s="7"/>
       <c r="U6" s="4"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1164,61 +1169,61 @@
     </row>
     <row r="7" spans="1:26" ht="16.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>40</v>
+      <c r="C7" s="15" t="s">
+        <v>50</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>44</v>
+      <c r="D7" s="16" t="s">
+        <v>41</v>
       </c>
-      <c r="E7" s="17">
-        <v>123</v>
+      <c r="E7" s="16">
+        <v>322002</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>46</v>
+      <c r="F7" s="16" t="s">
+        <v>43</v>
       </c>
-      <c r="G7" s="17">
-        <v>5</v>
+      <c r="G7" s="16">
+        <v>8</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>45</v>
+      <c r="H7" s="16" t="s">
+        <v>43</v>
       </c>
-      <c r="I7" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="17">
+      <c r="I7" s="16">
         <v>1</v>
       </c>
-      <c r="K7" s="17">
+      <c r="J7" s="16">
         <v>1</v>
       </c>
-      <c r="L7" s="17">
-        <v>20</v>
+      <c r="K7" s="16">
+        <v>1</v>
       </c>
-      <c r="M7" s="17">
-        <v>2</v>
+      <c r="L7" s="16">
+        <v>1</v>
       </c>
-      <c r="N7" s="17">
+      <c r="M7" s="16">
         <v>0</v>
       </c>
-      <c r="O7" s="18">
-        <v>2</v>
-      </c>
-      <c r="P7" s="19">
+      <c r="N7" s="16">
         <v>0</v>
       </c>
-      <c r="Q7" s="19">
-        <v>2</v>
+      <c r="O7" s="17">
+        <v>1</v>
       </c>
-      <c r="R7" s="19">
+      <c r="P7" s="18">
         <v>0</v>
       </c>
-      <c r="S7" s="25">
+      <c r="Q7" s="18">
+        <v>1</v>
+      </c>
+      <c r="R7" s="18">
         <v>0</v>
       </c>
-      <c r="T7" s="8"/>
+      <c r="S7" s="24">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7"/>
       <c r="U7" s="4"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1228,61 +1233,61 @@
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="11">
+      <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>43</v>
+      <c r="E8" s="16">
+        <v>322003</v>
       </c>
-      <c r="E8" s="17">
-        <v>456</v>
+      <c r="F8" s="16" t="s">
+        <v>42</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>45</v>
+      <c r="G8" s="16">
+        <v>10</v>
       </c>
-      <c r="G8" s="17">
-        <v>6</v>
+      <c r="H8" s="16" t="s">
+        <v>42</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="J8" s="17">
+      <c r="I8" s="16">
         <v>1</v>
       </c>
-      <c r="K8" s="17">
+      <c r="J8" s="16">
         <v>1</v>
       </c>
-      <c r="L8" s="17">
-        <v>5</v>
+      <c r="K8" s="16">
+        <v>1</v>
       </c>
-      <c r="M8" s="17">
+      <c r="L8" s="16">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
         <v>0</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="16">
         <v>0</v>
       </c>
-      <c r="O8" s="18">
-        <v>3</v>
+      <c r="O8" s="17">
+        <v>1</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="18">
         <v>0</v>
       </c>
-      <c r="Q8" s="19">
-        <v>3</v>
+      <c r="Q8" s="18">
+        <v>1</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="18">
         <v>0</v>
       </c>
-      <c r="S8" s="25">
+      <c r="S8" s="24">
         <v>0</v>
       </c>
-      <c r="T8" s="8"/>
+      <c r="T8" s="7"/>
       <c r="U8" s="4"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
@@ -1292,27 +1297,61 @@
     </row>
     <row r="9" spans="1:26" ht="16.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>4</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="8"/>
+      <c r="C9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="16">
+        <v>323001</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="16">
+        <v>11</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="16">
+        <v>5</v>
+      </c>
+      <c r="J9" s="16">
+        <v>1</v>
+      </c>
+      <c r="K9" s="16">
+        <v>1</v>
+      </c>
+      <c r="L9" s="16">
+        <v>1</v>
+      </c>
+      <c r="M9" s="16">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="17">
+        <v>1</v>
+      </c>
+      <c r="P9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>1</v>
+      </c>
+      <c r="R9" s="18">
+        <v>0</v>
+      </c>
+      <c r="S9" s="24">
+        <v>0</v>
+      </c>
+      <c r="T9" s="7"/>
       <c r="U9" s="4"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
@@ -1322,27 +1361,61 @@
     </row>
     <row r="10" spans="1:26" ht="16.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="11">
+      <c r="B10" s="14">
         <v>5</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="8"/>
+      <c r="C10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="16">
+        <v>323002</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="16">
+        <v>11</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="16">
+        <v>2</v>
+      </c>
+      <c r="J10" s="16">
+        <v>1</v>
+      </c>
+      <c r="K10" s="16">
+        <v>1</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1</v>
+      </c>
+      <c r="M10" s="16">
+        <v>0</v>
+      </c>
+      <c r="N10" s="16">
+        <v>0</v>
+      </c>
+      <c r="O10" s="17">
+        <v>1</v>
+      </c>
+      <c r="P10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>1</v>
+      </c>
+      <c r="R10" s="18">
+        <v>0</v>
+      </c>
+      <c r="S10" s="24">
+        <v>0</v>
+      </c>
+      <c r="T10" s="7"/>
       <c r="U10" s="4"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
@@ -1351,28 +1424,62 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6">
+      <c r="A11" s="1"/>
+      <c r="B11" s="10">
         <v>6</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="2"/>
+      <c r="C11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="16">
+        <v>323003</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="J11" s="16">
+        <v>1</v>
+      </c>
+      <c r="K11" s="16">
+        <v>1</v>
+      </c>
+      <c r="L11" s="16">
+        <v>1</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0</v>
+      </c>
+      <c r="N11" s="16">
+        <v>0</v>
+      </c>
+      <c r="O11" s="17">
+        <v>1</v>
+      </c>
+      <c r="P11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>1</v>
+      </c>
+      <c r="R11" s="18">
+        <v>0</v>
+      </c>
+      <c r="S11" s="24">
+        <v>0</v>
+      </c>
+      <c r="T11" s="7"/>
       <c r="U11" s="4"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
@@ -1382,26 +1489,60 @@
     </row>
     <row r="12" spans="1:26" ht="16.5" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="6">
+      <c r="B12" s="14">
         <v>7</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
+      <c r="C12" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="16">
+        <v>323004</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>1</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0</v>
+      </c>
       <c r="T12" s="2"/>
       <c r="U12" s="4"/>
       <c r="V12" s="2"/>
@@ -1412,7 +1553,7 @@
     </row>
     <row r="13" spans="1:26" ht="16.5" customHeight="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="6">
+      <c r="B13" s="10">
         <v>8</v>
       </c>
       <c r="C13" s="2"/>
@@ -1442,7 +1583,7 @@
     </row>
     <row r="14" spans="1:26" ht="16.5" customHeight="1">
       <c r="A14" s="3"/>
-      <c r="B14" s="6">
+      <c r="B14" s="14">
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
@@ -1472,7 +1613,7 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="6">
+      <c r="B15" s="10">
         <v>10</v>
       </c>
       <c r="C15" s="2"/>
@@ -1502,7 +1643,7 @@
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="6">
+      <c r="B16" s="14">
         <v>11</v>
       </c>
       <c r="C16" s="2"/>
@@ -1532,7 +1673,7 @@
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="6">
+      <c r="B17" s="10">
         <v>12</v>
       </c>
       <c r="C17" s="2"/>
@@ -1562,7 +1703,7 @@
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="6">
+      <c r="B18" s="14">
         <v>13</v>
       </c>
       <c r="C18" s="2"/>
@@ -1592,7 +1733,7 @@
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1">
       <c r="A19" s="3"/>
-      <c r="B19" s="6">
+      <c r="B19" s="10">
         <v>14</v>
       </c>
       <c r="C19" s="2"/>
@@ -1622,7 +1763,7 @@
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1">
       <c r="A20" s="3"/>
-      <c r="B20" s="6">
+      <c r="B20" s="14">
         <v>15</v>
       </c>
       <c r="C20" s="2"/>
@@ -1652,7 +1793,7 @@
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="3"/>
-      <c r="B21" s="6">
+      <c r="B21" s="10">
         <v>16</v>
       </c>
       <c r="C21" s="2"/>
@@ -1682,7 +1823,7 @@
     </row>
     <row r="22" spans="1:26" ht="16.5" customHeight="1">
       <c r="A22" s="3"/>
-      <c r="B22" s="6">
+      <c r="B22" s="14">
         <v>17</v>
       </c>
       <c r="C22" s="2"/>
@@ -1712,7 +1853,7 @@
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="3"/>
-      <c r="B23" s="6">
+      <c r="B23" s="10">
         <v>18</v>
       </c>
       <c r="C23" s="2"/>
@@ -1742,7 +1883,7 @@
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="6">
+      <c r="B24" s="14">
         <v>19</v>
       </c>
       <c r="C24" s="2"/>
@@ -1772,7 +1913,7 @@
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="6">
+      <c r="B25" s="10">
         <v>20</v>
       </c>
       <c r="C25" s="2"/>
@@ -1802,7 +1943,7 @@
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="6">
+      <c r="B26" s="14">
         <v>21</v>
       </c>
       <c r="C26" s="2"/>
@@ -1822,7 +1963,7 @@
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
+      <c r="T26" s="2"/>
       <c r="U26" s="4"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
@@ -1832,7 +1973,7 @@
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="6">
+      <c r="B27" s="10">
         <v>22</v>
       </c>
       <c r="C27" s="2"/>
@@ -1852,7 +1993,7 @@
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
-      <c r="T27" s="2"/>
+      <c r="T27" s="5"/>
       <c r="U27" s="4"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
@@ -1862,7 +2003,7 @@
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="6">
+      <c r="B28" s="14">
         <v>23</v>
       </c>
       <c r="C28" s="2"/>
@@ -1892,7 +2033,7 @@
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="6">
+      <c r="B29" s="10">
         <v>24</v>
       </c>
       <c r="C29" s="2"/>
@@ -1922,7 +2063,7 @@
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="6">
+      <c r="B30" s="14">
         <v>25</v>
       </c>
       <c r="C30" s="2"/>
@@ -1952,7 +2093,7 @@
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="6">
+      <c r="B31" s="10">
         <v>26</v>
       </c>
       <c r="C31" s="2"/>
@@ -1982,7 +2123,7 @@
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="6">
+      <c r="B32" s="14">
         <v>27</v>
       </c>
       <c r="C32" s="2"/>
@@ -2012,7 +2153,7 @@
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="6">
+      <c r="B33" s="10">
         <v>28</v>
       </c>
       <c r="C33" s="2"/>
@@ -2042,7 +2183,7 @@
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="6">
+      <c r="B34" s="14">
         <v>29</v>
       </c>
       <c r="C34" s="2"/>
@@ -2072,7 +2213,7 @@
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="6">
+      <c r="B35" s="10">
         <v>30</v>
       </c>
       <c r="C35" s="2"/>
@@ -2102,7 +2243,7 @@
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1">
       <c r="A36" s="3"/>
-      <c r="B36" s="6">
+      <c r="B36" s="14">
         <v>31</v>
       </c>
       <c r="C36" s="2"/>
@@ -2132,7 +2273,7 @@
     </row>
     <row r="37" spans="1:26" ht="16.5" customHeight="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="6">
+      <c r="B37" s="10">
         <v>32</v>
       </c>
       <c r="C37" s="2"/>
@@ -2162,7 +2303,7 @@
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="6">
+      <c r="B38" s="14">
         <v>33</v>
       </c>
       <c r="C38" s="2"/>
@@ -2192,7 +2333,7 @@
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1">
       <c r="A39" s="3"/>
-      <c r="B39" s="6">
+      <c r="B39" s="10">
         <v>34</v>
       </c>
       <c r="C39" s="2"/>
@@ -2222,7 +2363,7 @@
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1">
       <c r="A40" s="3"/>
-      <c r="B40" s="6">
+      <c r="B40" s="14">
         <v>35</v>
       </c>
       <c r="C40" s="2"/>
@@ -2252,7 +2393,7 @@
     </row>
     <row r="41" spans="1:26" ht="16.5" customHeight="1">
       <c r="A41" s="3"/>
-      <c r="B41" s="6">
+      <c r="B41" s="10">
         <v>36</v>
       </c>
       <c r="C41" s="2"/>
@@ -2282,7 +2423,7 @@
     </row>
     <row r="42" spans="1:26" ht="16.5" customHeight="1">
       <c r="A42" s="3"/>
-      <c r="B42" s="6">
+      <c r="B42" s="14">
         <v>37</v>
       </c>
       <c r="C42" s="2"/>
@@ -2312,7 +2453,7 @@
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1">
       <c r="A43" s="3"/>
-      <c r="B43" s="6">
+      <c r="B43" s="10">
         <v>38</v>
       </c>
       <c r="C43" s="2"/>
@@ -2342,7 +2483,7 @@
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1">
       <c r="A44" s="3"/>
-      <c r="B44" s="6">
+      <c r="B44" s="14">
         <v>39</v>
       </c>
       <c r="C44" s="2"/>
@@ -2362,7 +2503,7 @@
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
+      <c r="T44" s="2"/>
       <c r="U44" s="4"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
@@ -2372,7 +2513,7 @@
     </row>
     <row r="45" spans="1:26" ht="16.5" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="6">
+      <c r="B45" s="10">
         <v>40</v>
       </c>
       <c r="C45" s="2"/>
@@ -2392,7 +2533,7 @@
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
-      <c r="T45" s="2"/>
+      <c r="T45" s="5"/>
       <c r="U45" s="4"/>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
@@ -2402,7 +2543,7 @@
     </row>
     <row r="46" spans="1:26" ht="16.5" customHeight="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="6">
+      <c r="B46" s="14">
         <v>41</v>
       </c>
       <c r="C46" s="2"/>
@@ -2432,7 +2573,7 @@
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="6">
+      <c r="B47" s="10">
         <v>42</v>
       </c>
       <c r="C47" s="2"/>
@@ -2462,7 +2603,7 @@
     </row>
     <row r="48" spans="1:26" ht="16.5" customHeight="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="6">
+      <c r="B48" s="14">
         <v>43</v>
       </c>
       <c r="C48" s="2"/>
@@ -2492,7 +2633,7 @@
     </row>
     <row r="49" spans="1:26" ht="16.5" customHeight="1">
       <c r="A49" s="3"/>
-      <c r="B49" s="6">
+      <c r="B49" s="10">
         <v>44</v>
       </c>
       <c r="C49" s="2"/>
@@ -2522,7 +2663,7 @@
     </row>
     <row r="50" spans="1:26" ht="16.5" customHeight="1">
       <c r="A50" s="3"/>
-      <c r="B50" s="6">
+      <c r="B50" s="14">
         <v>45</v>
       </c>
       <c r="C50" s="2"/>
@@ -2552,7 +2693,7 @@
     </row>
     <row r="51" spans="1:26" ht="16.5" customHeight="1">
       <c r="A51" s="3"/>
-      <c r="B51" s="6">
+      <c r="B51" s="10">
         <v>46</v>
       </c>
       <c r="C51" s="2"/>
@@ -2582,7 +2723,7 @@
     </row>
     <row r="52" spans="1:26" ht="16.5" customHeight="1">
       <c r="A52" s="3"/>
-      <c r="B52" s="6">
+      <c r="B52" s="14">
         <v>47</v>
       </c>
       <c r="C52" s="2"/>
@@ -2612,7 +2753,7 @@
     </row>
     <row r="53" spans="1:26" ht="16.5" customHeight="1">
       <c r="A53" s="3"/>
-      <c r="B53" s="6">
+      <c r="B53" s="10">
         <v>48</v>
       </c>
       <c r="C53" s="2"/>
@@ -2642,7 +2783,7 @@
     </row>
     <row r="54" spans="1:26" ht="16.5" customHeight="1">
       <c r="A54" s="3"/>
-      <c r="B54" s="6">
+      <c r="B54" s="14">
         <v>49</v>
       </c>
       <c r="C54" s="2"/>
@@ -2672,7 +2813,7 @@
     </row>
     <row r="55" spans="1:26" ht="16.5" customHeight="1">
       <c r="A55" s="3"/>
-      <c r="B55" s="6">
+      <c r="B55" s="10">
         <v>50</v>
       </c>
       <c r="C55" s="2"/>
@@ -2702,7 +2843,7 @@
     </row>
     <row r="56" spans="1:26" ht="16.5" customHeight="1">
       <c r="A56" s="3"/>
-      <c r="B56" s="6">
+      <c r="B56" s="14">
         <v>51</v>
       </c>
       <c r="C56" s="2"/>
@@ -2732,7 +2873,7 @@
     </row>
     <row r="57" spans="1:26" ht="16.5" customHeight="1">
       <c r="A57" s="3"/>
-      <c r="B57" s="6">
+      <c r="B57" s="10">
         <v>52</v>
       </c>
       <c r="C57" s="2"/>
@@ -2762,7 +2903,7 @@
     </row>
     <row r="58" spans="1:26" ht="16.5" customHeight="1">
       <c r="A58" s="3"/>
-      <c r="B58" s="6">
+      <c r="B58" s="14">
         <v>53</v>
       </c>
       <c r="C58" s="2"/>
@@ -2792,7 +2933,7 @@
     </row>
     <row r="59" spans="1:26" ht="16.5" customHeight="1">
       <c r="A59" s="3"/>
-      <c r="B59" s="6">
+      <c r="B59" s="10">
         <v>54</v>
       </c>
       <c r="C59" s="2"/>
@@ -2822,7 +2963,7 @@
     </row>
     <row r="60" spans="1:26" ht="16.5" customHeight="1">
       <c r="A60" s="3"/>
-      <c r="B60" s="6">
+      <c r="B60" s="14">
         <v>55</v>
       </c>
       <c r="C60" s="2"/>
@@ -2852,7 +2993,7 @@
     </row>
     <row r="61" spans="1:26" ht="16.5" customHeight="1">
       <c r="A61" s="3"/>
-      <c r="B61" s="6">
+      <c r="B61" s="10">
         <v>56</v>
       </c>
       <c r="C61" s="2"/>
@@ -2882,7 +3023,7 @@
     </row>
     <row r="62" spans="1:26" ht="16.5" customHeight="1">
       <c r="A62" s="3"/>
-      <c r="B62" s="6">
+      <c r="B62" s="14">
         <v>57</v>
       </c>
       <c r="C62" s="2"/>
@@ -2912,7 +3053,7 @@
     </row>
     <row r="63" spans="1:26" ht="16.5" customHeight="1">
       <c r="A63" s="3"/>
-      <c r="B63" s="6">
+      <c r="B63" s="10">
         <v>58</v>
       </c>
       <c r="C63" s="2"/>
@@ -2942,7 +3083,7 @@
     </row>
     <row r="64" spans="1:26" ht="16.5" customHeight="1">
       <c r="A64" s="3"/>
-      <c r="B64" s="6">
+      <c r="B64" s="14">
         <v>59</v>
       </c>
       <c r="C64" s="2"/>
@@ -2972,7 +3113,7 @@
     </row>
     <row r="65" spans="1:26" ht="16.5" customHeight="1">
       <c r="A65" s="3"/>
-      <c r="B65" s="6">
+      <c r="B65" s="10">
         <v>60</v>
       </c>
       <c r="C65" s="2"/>
@@ -3002,7 +3143,7 @@
     </row>
     <row r="66" spans="1:26" ht="16.5" customHeight="1">
       <c r="A66" s="3"/>
-      <c r="B66" s="6">
+      <c r="B66" s="14">
         <v>61</v>
       </c>
       <c r="C66" s="2"/>
@@ -3032,7 +3173,7 @@
     </row>
     <row r="67" spans="1:26" ht="16.5" customHeight="1">
       <c r="A67" s="3"/>
-      <c r="B67" s="6">
+      <c r="B67" s="10">
         <v>62</v>
       </c>
       <c r="C67" s="2"/>
@@ -3062,7 +3203,7 @@
     </row>
     <row r="68" spans="1:26" ht="16.5" customHeight="1">
       <c r="A68" s="3"/>
-      <c r="B68" s="6">
+      <c r="B68" s="14">
         <v>63</v>
       </c>
       <c r="C68" s="2"/>
@@ -3092,7 +3233,7 @@
     </row>
     <row r="69" spans="1:26" ht="16.5" customHeight="1">
       <c r="A69" s="3"/>
-      <c r="B69" s="6">
+      <c r="B69" s="10">
         <v>64</v>
       </c>
       <c r="C69" s="2"/>
@@ -3122,7 +3263,7 @@
     </row>
     <row r="70" spans="1:26" ht="16.5" customHeight="1">
       <c r="A70" s="3"/>
-      <c r="B70" s="6">
+      <c r="B70" s="14">
         <v>65</v>
       </c>
       <c r="C70" s="2"/>
@@ -3152,7 +3293,7 @@
     </row>
     <row r="71" spans="1:26" ht="16.5" customHeight="1">
       <c r="A71" s="3"/>
-      <c r="B71" s="6">
+      <c r="B71" s="10">
         <v>66</v>
       </c>
       <c r="C71" s="2"/>
@@ -3182,7 +3323,7 @@
     </row>
     <row r="72" spans="1:26" ht="16.5" customHeight="1">
       <c r="A72" s="3"/>
-      <c r="B72" s="6">
+      <c r="B72" s="14">
         <v>67</v>
       </c>
       <c r="C72" s="2"/>
@@ -3212,7 +3353,7 @@
     </row>
     <row r="73" spans="1:26" ht="16.5" customHeight="1">
       <c r="A73" s="3"/>
-      <c r="B73" s="6">
+      <c r="B73" s="10">
         <v>68</v>
       </c>
       <c r="C73" s="2"/>
@@ -3242,7 +3383,7 @@
     </row>
     <row r="74" spans="1:26" ht="16.5" customHeight="1">
       <c r="A74" s="3"/>
-      <c r="B74" s="6">
+      <c r="B74" s="14">
         <v>69</v>
       </c>
       <c r="C74" s="2"/>
@@ -3272,7 +3413,7 @@
     </row>
     <row r="75" spans="1:26" ht="16.5" customHeight="1">
       <c r="A75" s="3"/>
-      <c r="B75" s="6">
+      <c r="B75" s="10">
         <v>70</v>
       </c>
       <c r="C75" s="2"/>
@@ -3302,7 +3443,7 @@
     </row>
     <row r="76" spans="1:26" ht="16.5" customHeight="1">
       <c r="A76" s="3"/>
-      <c r="B76" s="6">
+      <c r="B76" s="14">
         <v>71</v>
       </c>
       <c r="C76" s="2"/>
@@ -3332,7 +3473,7 @@
     </row>
     <row r="77" spans="1:26" ht="16.5" customHeight="1">
       <c r="A77" s="3"/>
-      <c r="B77" s="6">
+      <c r="B77" s="10">
         <v>72</v>
       </c>
       <c r="C77" s="2"/>
@@ -3362,7 +3503,7 @@
     </row>
     <row r="78" spans="1:26" ht="16.5" customHeight="1">
       <c r="A78" s="3"/>
-      <c r="B78" s="6">
+      <c r="B78" s="14">
         <v>73</v>
       </c>
       <c r="C78" s="2"/>
@@ -3392,7 +3533,7 @@
     </row>
     <row r="79" spans="1:26" ht="16.5" customHeight="1">
       <c r="A79" s="3"/>
-      <c r="B79" s="6">
+      <c r="B79" s="10">
         <v>74</v>
       </c>
       <c r="C79" s="2"/>
@@ -3422,7 +3563,7 @@
     </row>
     <row r="80" spans="1:26" ht="16.5" customHeight="1">
       <c r="A80" s="3"/>
-      <c r="B80" s="6">
+      <c r="B80" s="14">
         <v>75</v>
       </c>
       <c r="C80" s="2"/>
@@ -3442,7 +3583,7 @@
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
       <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
+      <c r="T80" s="2"/>
       <c r="U80" s="4"/>
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
@@ -3452,7 +3593,7 @@
     </row>
     <row r="81" spans="1:26" ht="16.5" customHeight="1">
       <c r="A81" s="3"/>
-      <c r="B81" s="6">
+      <c r="B81" s="10">
         <v>76</v>
       </c>
       <c r="C81" s="2"/>
@@ -3472,7 +3613,7 @@
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
-      <c r="T81" s="2"/>
+      <c r="T81" s="5"/>
       <c r="U81" s="4"/>
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
@@ -3482,7 +3623,7 @@
     </row>
     <row r="82" spans="1:26" ht="16.5" customHeight="1">
       <c r="A82" s="3"/>
-      <c r="B82" s="6">
+      <c r="B82" s="14">
         <v>77</v>
       </c>
       <c r="C82" s="2"/>
@@ -3512,7 +3653,7 @@
     </row>
     <row r="83" spans="1:26" ht="16.5" customHeight="1">
       <c r="A83" s="3"/>
-      <c r="B83" s="6">
+      <c r="B83" s="10">
         <v>78</v>
       </c>
       <c r="C83" s="2"/>
@@ -3542,7 +3683,7 @@
     </row>
     <row r="84" spans="1:26" ht="16.5" customHeight="1">
       <c r="A84" s="3"/>
-      <c r="B84" s="6">
+      <c r="B84" s="14">
         <v>79</v>
       </c>
       <c r="C84" s="2"/>
@@ -3572,7 +3713,7 @@
     </row>
     <row r="85" spans="1:26" ht="16.5" customHeight="1">
       <c r="A85" s="3"/>
-      <c r="B85" s="6">
+      <c r="B85" s="10">
         <v>80</v>
       </c>
       <c r="C85" s="2"/>
@@ -3602,7 +3743,7 @@
     </row>
     <row r="86" spans="1:26" ht="16.5" customHeight="1">
       <c r="A86" s="3"/>
-      <c r="B86" s="6">
+      <c r="B86" s="14">
         <v>81</v>
       </c>
       <c r="C86" s="2"/>
@@ -3632,7 +3773,7 @@
     </row>
     <row r="87" spans="1:26" ht="16.5" customHeight="1">
       <c r="A87" s="3"/>
-      <c r="B87" s="6">
+      <c r="B87" s="10">
         <v>82</v>
       </c>
       <c r="C87" s="2"/>
@@ -3662,7 +3803,7 @@
     </row>
     <row r="88" spans="1:26" ht="16.5" customHeight="1">
       <c r="A88" s="3"/>
-      <c r="B88" s="6">
+      <c r="B88" s="14">
         <v>83</v>
       </c>
       <c r="C88" s="2"/>
@@ -3692,7 +3833,7 @@
     </row>
     <row r="89" spans="1:26" ht="16.5" customHeight="1">
       <c r="A89" s="3"/>
-      <c r="B89" s="6">
+      <c r="B89" s="10">
         <v>84</v>
       </c>
       <c r="C89" s="2"/>
@@ -3722,7 +3863,7 @@
     </row>
     <row r="90" spans="1:26" ht="16.5" customHeight="1">
       <c r="A90" s="3"/>
-      <c r="B90" s="6">
+      <c r="B90" s="14">
         <v>85</v>
       </c>
       <c r="C90" s="2"/>
@@ -3752,7 +3893,7 @@
     </row>
     <row r="91" spans="1:26" ht="16.5" customHeight="1">
       <c r="A91" s="3"/>
-      <c r="B91" s="6">
+      <c r="B91" s="10">
         <v>86</v>
       </c>
       <c r="C91" s="2"/>
@@ -3782,7 +3923,7 @@
     </row>
     <row r="92" spans="1:26" ht="16.5" customHeight="1">
       <c r="A92" s="3"/>
-      <c r="B92" s="6">
+      <c r="B92" s="14">
         <v>87</v>
       </c>
       <c r="C92" s="2"/>
@@ -3812,7 +3953,7 @@
     </row>
     <row r="93" spans="1:26" ht="16.5" customHeight="1">
       <c r="A93" s="3"/>
-      <c r="B93" s="6">
+      <c r="B93" s="10">
         <v>88</v>
       </c>
       <c r="C93" s="2"/>
@@ -3842,7 +3983,7 @@
     </row>
     <row r="94" spans="1:26" ht="16.5" customHeight="1">
       <c r="A94" s="3"/>
-      <c r="B94" s="6">
+      <c r="B94" s="14">
         <v>89</v>
       </c>
       <c r="C94" s="2"/>
@@ -3872,7 +4013,7 @@
     </row>
     <row r="95" spans="1:26" ht="16.5" customHeight="1">
       <c r="A95" s="3"/>
-      <c r="B95" s="6">
+      <c r="B95" s="10">
         <v>90</v>
       </c>
       <c r="C95" s="2"/>
@@ -3902,7 +4043,7 @@
     </row>
     <row r="96" spans="1:26" ht="16.5" customHeight="1">
       <c r="A96" s="3"/>
-      <c r="B96" s="6">
+      <c r="B96" s="14">
         <v>91</v>
       </c>
       <c r="C96" s="2"/>
@@ -3932,7 +4073,7 @@
     </row>
     <row r="97" spans="1:26" ht="16.5" customHeight="1">
       <c r="A97" s="3"/>
-      <c r="B97" s="6">
+      <c r="B97" s="10">
         <v>92</v>
       </c>
       <c r="C97" s="2"/>
@@ -3962,7 +4103,7 @@
     </row>
     <row r="98" spans="1:26" ht="16.5" customHeight="1">
       <c r="A98" s="3"/>
-      <c r="B98" s="6">
+      <c r="B98" s="14">
         <v>93</v>
       </c>
       <c r="C98" s="2"/>
@@ -3992,7 +4133,7 @@
     </row>
     <row r="99" spans="1:26" ht="16.5" customHeight="1">
       <c r="A99" s="3"/>
-      <c r="B99" s="6">
+      <c r="B99" s="10">
         <v>94</v>
       </c>
       <c r="C99" s="2"/>
@@ -4022,7 +4163,7 @@
     </row>
     <row r="100" spans="1:26" ht="16.5" customHeight="1">
       <c r="A100" s="3"/>
-      <c r="B100" s="6">
+      <c r="B100" s="14">
         <v>95</v>
       </c>
       <c r="C100" s="2"/>
@@ -4052,7 +4193,7 @@
     </row>
     <row r="101" spans="1:26" ht="16.5" customHeight="1">
       <c r="A101" s="3"/>
-      <c r="B101" s="6">
+      <c r="B101" s="10">
         <v>96</v>
       </c>
       <c r="C101" s="2"/>
@@ -4082,7 +4223,7 @@
     </row>
     <row r="102" spans="1:26" ht="16.5" customHeight="1">
       <c r="A102" s="3"/>
-      <c r="B102" s="6">
+      <c r="B102" s="14">
         <v>97</v>
       </c>
       <c r="C102" s="2"/>
@@ -4112,7 +4253,7 @@
     </row>
     <row r="103" spans="1:26" ht="16.5" customHeight="1">
       <c r="A103" s="3"/>
-      <c r="B103" s="6">
+      <c r="B103" s="10">
         <v>98</v>
       </c>
       <c r="C103" s="2"/>
@@ -4142,7 +4283,7 @@
     </row>
     <row r="104" spans="1:26" ht="16.5" customHeight="1">
       <c r="A104" s="3"/>
-      <c r="B104" s="6">
+      <c r="B104" s="14">
         <v>99</v>
       </c>
       <c r="C104" s="2"/>
@@ -4172,7 +4313,7 @@
     </row>
     <row r="105" spans="1:26" ht="16.5" customHeight="1">
       <c r="A105" s="3"/>
-      <c r="B105" s="6">
+      <c r="B105" s="10">
         <v>100</v>
       </c>
       <c r="C105" s="2"/>
@@ -4202,7 +4343,9 @@
     </row>
     <row r="106" spans="1:26" ht="16.5" customHeight="1">
       <c r="A106" s="3"/>
-      <c r="B106" s="7"/>
+      <c r="B106" s="14">
+        <v>101</v>
+      </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -4230,7 +4373,7 @@
     </row>
     <row r="107" spans="1:26" ht="16.5" customHeight="1">
       <c r="A107" s="3"/>
-      <c r="B107" s="7"/>
+      <c r="B107" s="6"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -4258,7 +4401,7 @@
     </row>
     <row r="108" spans="1:26" ht="16.5" customHeight="1">
       <c r="A108" s="3"/>
-      <c r="B108" s="7"/>
+      <c r="B108" s="6"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -4286,7 +4429,7 @@
     </row>
     <row r="109" spans="1:26" ht="16.5" customHeight="1">
       <c r="A109" s="3"/>
-      <c r="B109" s="7"/>
+      <c r="B109" s="6"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -4314,7 +4457,7 @@
     </row>
     <row r="110" spans="1:26" ht="16.5" customHeight="1">
       <c r="A110" s="3"/>
-      <c r="B110" s="7"/>
+      <c r="B110" s="6"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -4342,7 +4485,7 @@
     </row>
     <row r="111" spans="1:26" ht="16.5" customHeight="1">
       <c r="A111" s="3"/>
-      <c r="B111" s="7"/>
+      <c r="B111" s="6"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -4370,7 +4513,7 @@
     </row>
     <row r="112" spans="1:26" ht="16.5" customHeight="1">
       <c r="A112" s="3"/>
-      <c r="B112" s="7"/>
+      <c r="B112" s="6"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -4398,7 +4541,7 @@
     </row>
     <row r="113" spans="1:26" ht="16.5" customHeight="1">
       <c r="A113" s="3"/>
-      <c r="B113" s="7"/>
+      <c r="B113" s="6"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -4426,7 +4569,7 @@
     </row>
     <row r="114" spans="1:26" ht="16.5" customHeight="1">
       <c r="A114" s="3"/>
-      <c r="B114" s="7"/>
+      <c r="B114" s="6"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -4454,7 +4597,7 @@
     </row>
     <row r="115" spans="1:26" ht="16.5" customHeight="1">
       <c r="A115" s="3"/>
-      <c r="B115" s="7"/>
+      <c r="B115" s="6"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -4482,7 +4625,7 @@
     </row>
     <row r="116" spans="1:26" ht="16.5" customHeight="1">
       <c r="A116" s="3"/>
-      <c r="B116" s="7"/>
+      <c r="B116" s="6"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -4510,7 +4653,7 @@
     </row>
     <row r="117" spans="1:26" ht="16.5" customHeight="1">
       <c r="A117" s="3"/>
-      <c r="B117" s="7"/>
+      <c r="B117" s="6"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -4538,7 +4681,7 @@
     </row>
     <row r="118" spans="1:26" ht="16.5" customHeight="1">
       <c r="A118" s="3"/>
-      <c r="B118" s="7"/>
+      <c r="B118" s="6"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -4566,7 +4709,7 @@
     </row>
     <row r="119" spans="1:26" ht="16.5" customHeight="1">
       <c r="A119" s="3"/>
-      <c r="B119" s="7"/>
+      <c r="B119" s="6"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -4594,7 +4737,7 @@
     </row>
     <row r="120" spans="1:26" ht="16.5" customHeight="1">
       <c r="A120" s="3"/>
-      <c r="B120" s="7"/>
+      <c r="B120" s="6"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -4622,7 +4765,7 @@
     </row>
     <row r="121" spans="1:26" ht="16.5" customHeight="1">
       <c r="A121" s="3"/>
-      <c r="B121" s="7"/>
+      <c r="B121" s="6"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -4650,7 +4793,7 @@
     </row>
     <row r="122" spans="1:26" ht="16.5" customHeight="1">
       <c r="A122" s="3"/>
-      <c r="B122" s="7"/>
+      <c r="B122" s="6"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -4678,7 +4821,7 @@
     </row>
     <row r="123" spans="1:26" ht="16.5" customHeight="1">
       <c r="A123" s="3"/>
-      <c r="B123" s="7"/>
+      <c r="B123" s="6"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -4706,7 +4849,7 @@
     </row>
     <row r="124" spans="1:26" ht="16.5" customHeight="1">
       <c r="A124" s="3"/>
-      <c r="B124" s="7"/>
+      <c r="B124" s="6"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -4734,7 +4877,7 @@
     </row>
     <row r="125" spans="1:26" ht="16.5" customHeight="1">
       <c r="A125" s="3"/>
-      <c r="B125" s="7"/>
+      <c r="B125" s="6"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -4762,7 +4905,7 @@
     </row>
     <row r="126" spans="1:26" ht="16.5" customHeight="1">
       <c r="A126" s="3"/>
-      <c r="B126" s="7"/>
+      <c r="B126" s="6"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -4790,7 +4933,7 @@
     </row>
     <row r="127" spans="1:26" ht="16.5" customHeight="1">
       <c r="A127" s="3"/>
-      <c r="B127" s="7"/>
+      <c r="B127" s="6"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -4818,7 +4961,7 @@
     </row>
     <row r="128" spans="1:26" ht="16.5" customHeight="1">
       <c r="A128" s="3"/>
-      <c r="B128" s="7"/>
+      <c r="B128" s="6"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -4846,7 +4989,7 @@
     </row>
     <row r="129" spans="1:26" ht="16.5" customHeight="1">
       <c r="A129" s="3"/>
-      <c r="B129" s="7"/>
+      <c r="B129" s="6"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -4874,7 +5017,7 @@
     </row>
     <row r="130" spans="1:26" ht="16.5" customHeight="1">
       <c r="A130" s="3"/>
-      <c r="B130" s="7"/>
+      <c r="B130" s="6"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -4902,7 +5045,7 @@
     </row>
     <row r="131" spans="1:26" ht="16.5" customHeight="1">
       <c r="A131" s="3"/>
-      <c r="B131" s="7"/>
+      <c r="B131" s="6"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -4930,7 +5073,7 @@
     </row>
     <row r="132" spans="1:26" ht="16.5" customHeight="1">
       <c r="A132" s="3"/>
-      <c r="B132" s="7"/>
+      <c r="B132" s="6"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -4958,7 +5101,7 @@
     </row>
     <row r="133" spans="1:26" ht="16.5" customHeight="1">
       <c r="A133" s="3"/>
-      <c r="B133" s="7"/>
+      <c r="B133" s="6"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -4986,7 +5129,7 @@
     </row>
     <row r="134" spans="1:26" ht="16.5" customHeight="1">
       <c r="A134" s="3"/>
-      <c r="B134" s="7"/>
+      <c r="B134" s="6"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -5014,7 +5157,7 @@
     </row>
     <row r="135" spans="1:26" ht="16.5" customHeight="1">
       <c r="A135" s="3"/>
-      <c r="B135" s="7"/>
+      <c r="B135" s="6"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -5042,7 +5185,7 @@
     </row>
     <row r="136" spans="1:26" ht="16.5" customHeight="1">
       <c r="A136" s="3"/>
-      <c r="B136" s="7"/>
+      <c r="B136" s="6"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -5070,7 +5213,7 @@
     </row>
     <row r="137" spans="1:26" ht="16.5" customHeight="1">
       <c r="A137" s="3"/>
-      <c r="B137" s="7"/>
+      <c r="B137" s="6"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -5098,7 +5241,7 @@
     </row>
     <row r="138" spans="1:26" ht="16.5" customHeight="1">
       <c r="A138" s="3"/>
-      <c r="B138" s="7"/>
+      <c r="B138" s="6"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -5126,7 +5269,7 @@
     </row>
     <row r="139" spans="1:26" ht="16.5" customHeight="1">
       <c r="A139" s="3"/>
-      <c r="B139" s="7"/>
+      <c r="B139" s="6"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -5154,7 +5297,7 @@
     </row>
     <row r="140" spans="1:26" ht="16.5" customHeight="1">
       <c r="A140" s="3"/>
-      <c r="B140" s="7"/>
+      <c r="B140" s="6"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -5182,7 +5325,7 @@
     </row>
     <row r="141" spans="1:26" ht="16.5" customHeight="1">
       <c r="A141" s="3"/>
-      <c r="B141" s="7"/>
+      <c r="B141" s="6"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -5210,7 +5353,7 @@
     </row>
     <row r="142" spans="1:26" ht="16.5" customHeight="1">
       <c r="A142" s="3"/>
-      <c r="B142" s="7"/>
+      <c r="B142" s="6"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -5238,7 +5381,7 @@
     </row>
     <row r="143" spans="1:26" ht="16.5" customHeight="1">
       <c r="A143" s="3"/>
-      <c r="B143" s="7"/>
+      <c r="B143" s="6"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -5266,7 +5409,7 @@
     </row>
     <row r="144" spans="1:26" ht="16.5" customHeight="1">
       <c r="A144" s="3"/>
-      <c r="B144" s="7"/>
+      <c r="B144" s="6"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -5294,7 +5437,7 @@
     </row>
     <row r="145" spans="1:26" ht="16.5" customHeight="1">
       <c r="A145" s="3"/>
-      <c r="B145" s="7"/>
+      <c r="B145" s="6"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -5322,7 +5465,7 @@
     </row>
     <row r="146" spans="1:26" ht="16.5" customHeight="1">
       <c r="A146" s="3"/>
-      <c r="B146" s="7"/>
+      <c r="B146" s="6"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -5350,7 +5493,7 @@
     </row>
     <row r="147" spans="1:26" ht="16.5" customHeight="1">
       <c r="A147" s="3"/>
-      <c r="B147" s="7"/>
+      <c r="B147" s="6"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -5378,7 +5521,7 @@
     </row>
     <row r="148" spans="1:26" ht="16.5" customHeight="1">
       <c r="A148" s="3"/>
-      <c r="B148" s="7"/>
+      <c r="B148" s="6"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -5406,7 +5549,7 @@
     </row>
     <row r="149" spans="1:26" ht="16.5" customHeight="1">
       <c r="A149" s="3"/>
-      <c r="B149" s="7"/>
+      <c r="B149" s="6"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -5434,7 +5577,7 @@
     </row>
     <row r="150" spans="1:26" ht="16.5" customHeight="1">
       <c r="A150" s="3"/>
-      <c r="B150" s="7"/>
+      <c r="B150" s="6"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -5462,7 +5605,7 @@
     </row>
     <row r="151" spans="1:26" ht="16.5" customHeight="1">
       <c r="A151" s="3"/>
-      <c r="B151" s="7"/>
+      <c r="B151" s="6"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -5490,7 +5633,7 @@
     </row>
     <row r="152" spans="1:26" ht="16.5" customHeight="1">
       <c r="A152" s="3"/>
-      <c r="B152" s="7"/>
+      <c r="B152" s="6"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -5518,7 +5661,7 @@
     </row>
     <row r="153" spans="1:26" ht="16.5" customHeight="1">
       <c r="A153" s="3"/>
-      <c r="B153" s="7"/>
+      <c r="B153" s="6"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -5546,7 +5689,7 @@
     </row>
     <row r="154" spans="1:26" ht="16.5" customHeight="1">
       <c r="A154" s="3"/>
-      <c r="B154" s="7"/>
+      <c r="B154" s="6"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -5574,7 +5717,7 @@
     </row>
     <row r="155" spans="1:26" ht="16.5" customHeight="1">
       <c r="A155" s="3"/>
-      <c r="B155" s="7"/>
+      <c r="B155" s="6"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -5602,7 +5745,7 @@
     </row>
     <row r="156" spans="1:26" ht="16.5" customHeight="1">
       <c r="A156" s="3"/>
-      <c r="B156" s="7"/>
+      <c r="B156" s="6"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -5630,7 +5773,7 @@
     </row>
     <row r="157" spans="1:26" ht="16.5" customHeight="1">
       <c r="A157" s="3"/>
-      <c r="B157" s="7"/>
+      <c r="B157" s="6"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -5658,7 +5801,7 @@
     </row>
     <row r="158" spans="1:26" ht="16.5" customHeight="1">
       <c r="A158" s="3"/>
-      <c r="B158" s="7"/>
+      <c r="B158" s="6"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -5686,7 +5829,7 @@
     </row>
     <row r="159" spans="1:26" ht="16.5" customHeight="1">
       <c r="A159" s="3"/>
-      <c r="B159" s="7"/>
+      <c r="B159" s="6"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -5714,7 +5857,7 @@
     </row>
     <row r="160" spans="1:26" ht="16.5" customHeight="1">
       <c r="A160" s="3"/>
-      <c r="B160" s="7"/>
+      <c r="B160" s="6"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -5742,7 +5885,7 @@
     </row>
     <row r="161" spans="1:26" ht="16.5" customHeight="1">
       <c r="A161" s="3"/>
-      <c r="B161" s="7"/>
+      <c r="B161" s="6"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -5770,7 +5913,7 @@
     </row>
     <row r="162" spans="1:26" ht="16.5" customHeight="1">
       <c r="A162" s="3"/>
-      <c r="B162" s="7"/>
+      <c r="B162" s="6"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -5798,7 +5941,7 @@
     </row>
     <row r="163" spans="1:26" ht="16.5" customHeight="1">
       <c r="A163" s="3"/>
-      <c r="B163" s="7"/>
+      <c r="B163" s="6"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -5826,7 +5969,7 @@
     </row>
     <row r="164" spans="1:26" ht="16.5" customHeight="1">
       <c r="A164" s="3"/>
-      <c r="B164" s="7"/>
+      <c r="B164" s="6"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -5854,7 +5997,7 @@
     </row>
     <row r="165" spans="1:26" ht="16.5" customHeight="1">
       <c r="A165" s="3"/>
-      <c r="B165" s="7"/>
+      <c r="B165" s="6"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -5882,7 +6025,7 @@
     </row>
     <row r="166" spans="1:26" ht="16.5" customHeight="1">
       <c r="A166" s="3"/>
-      <c r="B166" s="7"/>
+      <c r="B166" s="6"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -5910,7 +6053,7 @@
     </row>
     <row r="167" spans="1:26" ht="16.5" customHeight="1">
       <c r="A167" s="3"/>
-      <c r="B167" s="7"/>
+      <c r="B167" s="6"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -5938,7 +6081,7 @@
     </row>
     <row r="168" spans="1:26" ht="16.5" customHeight="1">
       <c r="A168" s="3"/>
-      <c r="B168" s="7"/>
+      <c r="B168" s="6"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -5966,7 +6109,7 @@
     </row>
     <row r="169" spans="1:26" ht="16.5" customHeight="1">
       <c r="A169" s="3"/>
-      <c r="B169" s="7"/>
+      <c r="B169" s="6"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -5992,9 +6135,9 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26" ht="14.25">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
+    <row r="170" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A170" s="3"/>
+      <c r="B170" s="6"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -6013,7 +6156,7 @@
       <c r="R170" s="5"/>
       <c r="S170" s="5"/>
       <c r="T170" s="2"/>
-      <c r="U170" s="2"/>
+      <c r="U170" s="4"/>
       <c r="V170" s="2"/>
       <c r="W170" s="2"/>
       <c r="X170" s="2"/>
@@ -29260,9 +29403,37 @@
       <c r="Y1000" s="2"/>
       <c r="Z1000" s="2"/>
     </row>
+    <row r="1001" spans="1:26" ht="14.25">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="5"/>
+      <c r="P1001" s="5"/>
+      <c r="Q1001" s="5"/>
+      <c r="R1001" s="5"/>
+      <c r="S1001" s="5"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B5:T105" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:T105">
+  <autoFilter ref="B5:T106">
+    <sortState ref="B6:T105">
       <sortCondition ref="B5:B105"/>
     </sortState>
   </autoFilter>
@@ -29279,7 +29450,7 @@
   <pageSetup paperSize="9" scale="30" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="26" man="1"/>
-    <brk id="8" max="27" man="1"/>
+    <brk id="12" max="30" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="2" max="47" man="1"/>
